--- a/NN_test.xlsx
+++ b/NN_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eva/BuguaWorld/CODE/DDPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byr/Documents/zm/a-deep-learn/30-a-deep-rl-approach-for-sdn-routing-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="7060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3886"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3886"/>
+    <sheetView tabSelected="1" topLeftCell="A3869" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -66458,6 +66458,12 @@
         <v>4.8860000000000001</v>
       </c>
     </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E1048576">
+        <f>MAX(E2:E1048575)</f>
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
